--- a/2026_Link_Updates.xlsx
+++ b/2026_Link_Updates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnDAmore\Source\ccda-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50272BB5-04A3-4ED9-A05D-64423593135E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C9B49-74A7-472D-8848-24801F44F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templates" sheetId="2" r:id="rId1"/>
     <sheet name="example" sheetId="1" r:id="rId2"/>
+    <sheet name="New Guide" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="2130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="2825">
   <si>
     <t>&lt;templateId root="2.16.840.1.113883.10.20.22.2.6.1" extension="2015-08-01"/&gt;</t>
   </si>
@@ -6427,6 +6428,2091 @@
   </si>
   <si>
     <t>{ file:'2.16.840.1.113883.10.20.22.4.133.html', href:'https://hl7.org/cda/us/ccda/Binary-wound-measurement-observation-example.html', text:'wound-measurement-observation-example' },</t>
+  </si>
+  <si>
+    <t>### Document Templates</t>
+  </si>
+  <si>
+    <t>### Section Templates</t>
+  </si>
+  <si>
+    <t>### Entry Templates</t>
+  </si>
+  <si>
+    <t>### Participation &amp; Other Templates</t>
+  </si>
+  <si>
+    <t>### Deprecated Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TemplateId </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Template </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---------- </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ------- </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.4.1.19376.1.5.3.1.3.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.4.1.19376.1.5.3.1.3.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.4.1.19376.1.5.3.1.3.18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.4.1.19376.1.5.3.1.3.26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.2.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.7.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.7.13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.7.14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.18.2.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.18.2.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.21.2.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.21.2.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.1.19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.1.58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.15.3.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.113 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.122 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.127 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.128 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.133 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.134 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.135 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.138 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.141 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.143 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.144 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.145 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.147 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.1.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.29.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.4.1.19376.1.5.3.1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.21.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.21.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.22.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.2.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.15.3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.415</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.421</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.500.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.500.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.500.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.501</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.502</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.503</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.504</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.505</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.507</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.509</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.510</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.518</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.24.3.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.24.3.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.34.3.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16.840.1.113883.10.20.22.4.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USRealmHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ContinuityofCareDocumentCCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HistoryandPhysical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ConsultationNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperativeNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DischargeSummary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProgressNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UnstructuredDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferSummary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ReferralNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CarePlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USRealmHeaderforPatientGeneratedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ChiefComplaintSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ReasonforReferralSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HistoryofPresentIllnessSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HospitalCourseSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ReviewofSystemsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HospitalDischargePhysicalSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GeneralStatusSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PhysicalExamSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperativeNoteFluidsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SurgicalDrainsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OperativeNoteSurgicalProcedureSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureEstimatedBloodLossSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureDispositionSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ObjectiveSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SubjectiveSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ActivitiesSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImmunizationsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ResultsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VitalSignsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProblemSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AllergiesAndIntolerancesSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProceduresSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AssessmentSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AssessmentandPlanSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlanofTreatmentSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DischargeMedicationsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ReasonforVisitSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ChiefComplaintandReasonforVisitSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FunctionalStatusSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FamilyHistorySection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HospitalDischargeStudiesSummarySection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SocialHistorySection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PayersSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PastMedicalHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AdvanceDirectivesSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EncountersSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicalEquipmentSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DischargeDiagnosisSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnesthesiaSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureDescriptionSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureFindingsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureIndicationsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedProcedureSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureSpecimensTakenSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PreoperativeDiagnosisSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PostoperativeDiagnosisSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PostprocedureDiagnosisSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ComplicationsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationsAdministeredSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicalGeneralHistorySection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureImplantsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HospitalDischargeInstructionsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HospitalConsultationsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AdmissionDiagnosisSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AdmissionMedicationsSectionEntriesOptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InstructionsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MentalStatusSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NutritionSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HealthConcernsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GoalsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OutcomesSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CourseofCareSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NotesSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CareTeamsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IndividualPronounObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AuthorizationActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AdvanceDirectiveObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EstimatedDateofDelivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PregnancyStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ResultOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ResultObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProblemConcernAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProblemObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HealthStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProblemStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AllergyIntoleranceObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SeverityObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ReactionObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProcedureActivityProcedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationSupplyOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationDispense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DrugVehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PreconditionforSubstanceAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VitalSignsOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VitalSignObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AllergyStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AllergyConcernAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AgeObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ServiceDeliveryLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HospitalDischargeDiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HospitalAdmissionDiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DischargeMedication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AdmissionMedication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProductInstance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SocialHistoryObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedEncounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedProcedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedMedicationActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedSupply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FamilyHistoryOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FamilyHistoryObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FamilyHistoryDeathObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EncounterActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NonMedicinalSupplyActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PostprocedureDiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImmunizationActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImmunizationNotGivenReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImmunizationMedicationInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CoverageActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PolicyActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CommentActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PreoperativeDiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FunctionalStatusOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FunctionalStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AssessmentScaleObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CaregiverCharacteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MentalStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MentalStatusOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NumberofPressureUlcersObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HighestPressureUlcerStage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DeceasedObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EncounterDiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AssessmentScaleSupportingObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CharacteristicsofHomeEnvironment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProgressTowardGoalObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CulturalandReligiousObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PrognosisObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LongitudinalCareWoundObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ExternalDocumentReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SubstanceAdministeredAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedImmunizationActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GoalObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EntryReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DrugMonitoringAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NutritionalStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SensoryStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SelfCareActivitiesADLandIADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedCoverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NutritionRecommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InterventionAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HealthConcernAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WoundMeasurementObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WoundCharacteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicalEquipmentOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RiskConcernAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NutritionAssessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ReferralAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HandoffCommunicationParticipants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PriorityPreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OutcomeObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CriticalityObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PlannedInterventionAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationFreeTextSig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BirthSexObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SectionTimeRangeObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NoteActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PregnancyIntentionInNextYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BrandNameObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CatalogNumberObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CompanyNameObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DeviceIdentifierObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImplantableDeviceStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DistinctIdentificationCodeObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ExpirationDateObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UDIOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LatexSafetyObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LotOrBatchNumberObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ManufacturingDateObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ModelNumberObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MRISafetyObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SerialNumberObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SpecimenCollectionProcedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SpecimenConditionObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CareTeamOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CareTeamMemberAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CareTeamTypeObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CareTeamMemberScheduleObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SexualOrientationObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DateOfDiagnosisAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BasicOccupationObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BasicIndustryObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DisabilityStatusObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TribalAffiliationObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SexObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MedicationAdherence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CareExperiencePreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TreatmentInterventionPreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SmokingStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AverageBloodPressureOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SexParameterForClinicalUseObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InterpreterNeededObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AgeRangeObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CarePlanAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SubstanceOrDeviceAllergyIntoleranceObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GenderIdentityObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AuthorParticipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USRealmPatientNamePTNUSFIELDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USRealmPersonNamePNUSFIELDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USRealmAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USRealmDateTimeInterval</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USRealmDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProvenanceAuthorParticipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProvenanceAssemblerParticipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RelatedPersonRelationshipAndNameParticipant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InstructionActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SmokingStatusMeaningfulUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TobaccoUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AdvanceDirectiveOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-USRealmHeader.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ContinuityofCareDocumentCCD.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HistoryandPhysical.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ConsultationNote.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureNote.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-OperativeNote.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DischargeSummary.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProgressNote.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-UnstructuredDocument.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-TransferSummary.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ReferralNote.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CarePlan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-USRealmHeaderforPatientGeneratedDocument.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ChiefComplaintSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ReasonforReferralSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HistoryofPresentIllnessSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HospitalCourseSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ReviewofSystemsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HospitalDischargePhysicalSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-GeneralStatusSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PhysicalExamSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-OperativeNoteFluidsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SurgicalDrainsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-OperativeNoteSurgicalProcedureSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureEstimatedBloodLossSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureDispositionSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ObjectiveSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SubjectiveSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ActivitiesSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ImmunizationsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ResultsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-VitalSignsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProblemSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AllergiesAndIntolerancesSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProceduresSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AssessmentSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AssessmentandPlanSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlanofTreatmentSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DischargeMedicationsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ReasonforVisitSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ChiefComplaintandReasonforVisitSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-FunctionalStatusSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-FamilyHistorySection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HospitalDischargeStudiesSummarySection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SocialHistorySection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PayersSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PastMedicalHistory.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AdvanceDirectivesSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-EncountersSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicalEquipmentSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DischargeDiagnosisSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AnesthesiaSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureDescriptionSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureFindingsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureIndicationsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedProcedureSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureSpecimensTakenSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PreoperativeDiagnosisSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PostoperativeDiagnosisSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PostprocedureDiagnosisSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ComplicationsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationsAdministeredSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicalGeneralHistorySection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureImplantsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HospitalDischargeInstructionsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HospitalConsultationsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AdmissionDiagnosisSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AdmissionMedicationsSectionEntriesOptional.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-InstructionsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MentalStatusSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NutritionSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HealthConcernsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-GoalsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-OutcomesSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CourseofCareSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NotesSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CareTeamsSection.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-IndividualPronounObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AuthorizationActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AdvanceDirectiveObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-EstimatedDateofDelivery.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PregnancyStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ResultOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ResultObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProblemConcernAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProblemObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HealthStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProblemStatus.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AllergyIntoleranceObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SeverityObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ReactionObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProcedureActivityProcedure.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationSupplyOrder.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationDispense.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-Indication.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationInformation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DrugVehicle.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PreconditionforSubstanceAdministration.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-VitalSignsOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-VitalSignObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AllergyStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AllergyConcernAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AgeObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ServiceDeliveryLocation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HospitalDischargeDiagnosis.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HospitalAdmissionDiagnosis.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DischargeMedication.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AdmissionMedication.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProductInstance.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SocialHistoryObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedEncounter.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedProcedure.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedMedicationActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedSupply.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-FamilyHistoryOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-FamilyHistoryObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-FamilyHistoryDeathObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-EncounterActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NonMedicinalSupplyActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PostprocedureDiagnosis.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ImmunizationActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ImmunizationNotGivenReason.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ImmunizationMedicationInformation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CoverageActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PolicyActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CommentActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PreoperativeDiagnosis.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-FunctionalStatusOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-FunctionalStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AssessmentScaleObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CaregiverCharacteristics.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MentalStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MentalStatusOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NumberofPressureUlcersObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HighestPressureUlcerStage.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DeceasedObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-EncounterDiagnosis.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AssessmentScaleSupportingObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CharacteristicsofHomeEnvironment.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProgressTowardGoalObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CulturalandReligiousObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PrognosisObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-LongitudinalCareWoundObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ExternalDocumentReference.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SubstanceAdministeredAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedImmunizationActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-GoalObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-EntryReference.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DrugMonitoringAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NutritionalStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SensoryStatus.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SelfCareActivitiesADLandIADL.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedCoverage.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NutritionRecommendation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-InterventionAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HealthConcernAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-WoundMeasurementObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-WoundCharacteristic.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicalEquipmentOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-RiskConcernAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NutritionAssessment.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ReferralAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-HandoffCommunicationParticipants.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PriorityPreference.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-OutcomeObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CriticalityObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PlannedInterventionAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationFreeTextSig.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-BirthSexObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SectionTimeRangeObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-NoteActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-PregnancyIntentionInNextYear.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-BrandNameObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CatalogNumberObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CompanyNameObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DeviceIdentifierObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ImplantableDeviceStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DistinctIdentificationCodeObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ExpirationDateObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-UDIOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-LatexSafetyObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-LotOrBatchNumberObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ManufacturingDateObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ModelNumberObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MRISafetyObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SerialNumberObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SpecimenCollectionProcedure.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SpecimenConditionObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CareTeamOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CareTeamMemberAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CareTeamTypeObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CareTeamMemberScheduleObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SexualOrientationObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DateOfDiagnosisAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-BasicOccupationObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-BasicIndustryObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-DisabilityStatusObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-TribalAffiliationObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SexObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-MedicationAdherence.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CareExperiencePreference.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-TreatmentInterventionPreference.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SmokingStatus.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AverageBloodPressureOrganizer.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SexParameterForClinicalUseObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-InterpreterNeededObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AgeRangeObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-CarePlanAct.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-Reason.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SubstanceOrDeviceAllergyIntoleranceObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-GenderIdentityObservation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AuthorParticipation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-USRealmPatientNamePTNUSFIELDED.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-USRealmPersonNamePNUSFIELDED.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-USRealmAddress.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-USRealmDateTimeInterval.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-USRealmDateTime.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProvenanceAuthorParticipation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-ProvenanceAssemblerParticipation.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-RelatedPersonRelationshipAndNameParticipant.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-InstructionActivity.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-SmokingStatusMeaningfulUse.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-TobaccoUse.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StructureDefinition-AdvanceDirectiveOrganizer.html </t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>JSON</t>
   </si>
 </sst>
 </file>
@@ -6470,9 +8556,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9547,7 +11634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1086" workbookViewId="0">
+    <sheetView topLeftCell="A1086" workbookViewId="0">
       <selection activeCell="A589" sqref="A589:A1140"/>
     </sheetView>
   </sheetViews>
@@ -37968,4 +40055,5995 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9C9E18-75D1-4EA4-BE4C-2883B863D337}">
+  <dimension ref="A1:H249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E195" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H249"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="119.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2822</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"https://hl7.org/cda/us/ccda/"&amp;E5</f>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-USRealmHeader.html </v>
+      </c>
+      <c r="G5" t="str">
+        <f>"https://hl7.org/cda/stds/ccda/draft1/StructureDefinition-"&amp;B5</f>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.1</v>
+      </c>
+      <c r="H5" t="str">
+        <f>"{new:'"&amp;F5&amp;"', old:'"&amp;G5&amp;"' },"</f>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-USRealmHeader.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.1' },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F66" si="0">"https://hl7.org/cda/us/ccda/"&amp;E6</f>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ContinuityofCareDocumentCCD.html </v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G66" si="1">"https://hl7.org/cda/stds/ccda/draft1/StructureDefinition-"&amp;B6</f>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.2</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H69" si="2">"{new:'"&amp;F6&amp;"', old:'"&amp;G6&amp;"' },"</f>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ContinuityofCareDocumentCCD.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.2' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HistoryandPhysical.html </v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.3</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HistoryandPhysical.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.3' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ConsultationNote.html </v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.4</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ConsultationNote.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.4' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureNote.html </v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.6</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureNote.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.6' },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-OperativeNote.html </v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.7</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-OperativeNote.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.7' },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DischargeSummary.html </v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.8</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DischargeSummary.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.8' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProgressNote.html </v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.9</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProgressNote.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.9' },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-UnstructuredDocument.html </v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.10</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-UnstructuredDocument.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.10' },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-TransferSummary.html </v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.13</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-TransferSummary.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.13' },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ReferralNote.html </v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.14</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ReferralNote.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.14' },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CarePlan.html </v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.15</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CarePlan.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.1.15' },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-USRealmHeaderforPatientGeneratedDocument.html </v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.29.1</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-USRealmHeaderforPatientGeneratedDocument.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.29.1' },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2131</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ChiefComplaintSection.html </v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 </v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ChiefComplaintSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.1.13.2.1 ' },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ReasonforReferralSection.html </v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ReasonforReferralSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.1' },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HistoryofPresentIllnessSection.html </v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.4 </v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HistoryofPresentIllnessSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.4 ' },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HospitalCourseSection.html </v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.5 </v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HospitalCourseSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.5 ' },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ReviewofSystemsSection.html </v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.18 </v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ReviewofSystemsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.18 ' },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargePhysicalSection.html </v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.26 </v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargePhysicalSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 1.3.6.1.4.1.19376.1.5.3.1.3.26 ' },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-GeneralStatusSection.html </v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.2.5 </v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-GeneralStatusSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.2.5 ' },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PhysicalExamSection.html </v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.2.10</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PhysicalExamSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.2.10' },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-OperativeNoteFluidsSection.html </v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.7.12 </v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-OperativeNoteFluidsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.7.12 ' },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SurgicalDrainsSection.html </v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.7.13 </v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SurgicalDrainsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.7.13 ' },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-OperativeNoteSurgicalProcedureSection.html </v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.7.14 </v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-OperativeNoteSurgicalProcedureSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.7.14 ' },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureEstimatedBloodLossSection.html </v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.18.2.9 </v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureEstimatedBloodLossSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.18.2.9 ' },</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureDispositionSection.html </v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.18.2.12 </v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureDispositionSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.18.2.12 ' },</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2622</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ObjectiveSection.html </v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.21.2.1 </v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ObjectiveSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.21.2.1 ' },</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SubjectiveSection.html </v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.21.2.2 </v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SubjectiveSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.21.2.2 ' },</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2624</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ActivitiesSection.html </v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.21.2.3</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ActivitiesSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.21.2.3' },</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationsSection.html </v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.1.1</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.1.1' },</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationsSection.html </v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.2.1</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.2.1' },</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ResultsSection.html </v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.3.1</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ResultsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.3.1' },</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2628</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-VitalSignsSection.html </v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.4.1</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-VitalSignsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.4.1' },</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProblemSection.html </v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.5.1</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProblemSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.5.1' },</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AllergiesAndIntolerancesSection.html </v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.6.1</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AllergiesAndIntolerancesSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.6.1' },</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProceduresSection.html </v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.7.1</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProceduresSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.7.1' },</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentSection.html </v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.8 </v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.8 ' },</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentandPlanSection.html </v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.9</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentandPlanSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.9' },</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlanofTreatmentSection.html </v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.10</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlanofTreatmentSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.10' },</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C47" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2409</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DischargeMedicationsSection.html </v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.11.1</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DischargeMedicationsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.11.1' },</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2636</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ReasonforVisitSection.html </v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.12 </v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ReasonforVisitSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.12 ' },</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ChiefComplaintandReasonforVisitSection.html </v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.13 </v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ChiefComplaintandReasonforVisitSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.13 ' },</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-FunctionalStatusSection.html </v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.14</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-FunctionalStatusSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.14' },</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C51" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistorySection.html </v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.15</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistorySection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.15' },</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2640</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargeStudiesSummarySection.html </v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.16 </v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargeStudiesSummarySection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.16 ' },</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C53" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SocialHistorySection.html </v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.17</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SocialHistorySection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.17' },</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C54" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2642</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PayersSection.html </v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.18</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PayersSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.18' },</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C55" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PastMedicalHistory.html </v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.20</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PastMedicalHistory.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.20' },</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44606</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectivesSection.html </v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.21.1</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectivesSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.21.1' },</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-EncountersSection.html </v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.22.1</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-EncountersSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.22.1' },</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C58" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicalEquipmentSection.html </v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.23</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicalEquipmentSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.23' },</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C59" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DischargeDiagnosisSection.html </v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.24</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DischargeDiagnosisSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.24' },</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C60" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AnesthesiaSection.html </v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.25</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AnesthesiaSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.25' },</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureDescriptionSection.html </v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.27 </v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureDescriptionSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.27 ' },</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureFindingsSection.html </v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.28</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureFindingsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.28' },</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C63" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureIndicationsSection.html </v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.29</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureIndicationsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.29' },</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedProcedureSection.html </v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.30</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedProcedureSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.30' },</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureSpecimensTakenSection.html </v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.31 </v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureSpecimensTakenSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.31 ' },</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C66" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PreoperativeDiagnosisSection.html </v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.34</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PreoperativeDiagnosisSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.34' },</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F127" si="3">"https://hl7.org/cda/us/ccda/"&amp;E67</f>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PostoperativeDiagnosisSection.html </v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G127" si="4">"https://hl7.org/cda/stds/ccda/draft1/StructureDefinition-"&amp;B67</f>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.35 </v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PostoperativeDiagnosisSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.35 ' },</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C68" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PostprocedureDiagnosisSection.html </v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.36</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PostprocedureDiagnosisSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.36' },</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C69" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ComplicationsSection.html </v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.37</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ComplicationsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.37' },</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C70" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationsAdministeredSection.html </v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.38</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" ref="H70:H133" si="5">"{new:'"&amp;F70&amp;"', old:'"&amp;G70&amp;"' },"</f>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationsAdministeredSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.38' },</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicalGeneralHistorySection.html </v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.39 </v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicalGeneralHistorySection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.39 ' },</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureImplantsSection.html </v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.40 </v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureImplantsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.40 ' },</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargeInstructionsSection.html </v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.41 </v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargeInstructionsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.41 ' },</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HospitalConsultationsSection.html </v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.42 </v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HospitalConsultationsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.42 ' },</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C75" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AdmissionDiagnosisSection.html </v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.43</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AdmissionDiagnosisSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.43' },</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C76" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AdmissionMedicationsSectionEntriesOptional.html </v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.44</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AdmissionMedicationsSectionEntriesOptional.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.44' },</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C77" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-InstructionsSection.html </v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.45</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-InstructionsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.45' },</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C78" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MentalStatusSection.html </v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.56</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MentalStatusSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.56' },</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NutritionSection.html </v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.57 </v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NutritionSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.57 ' },</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C80" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HealthConcernsSection.html </v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.58</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HealthConcernsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.58' },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2669</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-GoalsSection.html </v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.60 </v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-GoalsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.60 ' },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-OutcomesSection.html </v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.61 </v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-OutcomesSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.61 ' },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CourseofCareSection.html </v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.64 </v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CourseofCareSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.64 ' },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C84" s="2">
+        <v>46143</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NotesSection.html </v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.65</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NotesSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.65' },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamsSection.html </v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.500</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamsSection.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.2.500' },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45778</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-IndividualPronounObservation.html </v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.15.2</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-IndividualPronounObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.15.2' },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AuthorizationActivity.html </v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.1.19 </v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AuthorizationActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.1.19 ' },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectiveObservation.html </v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.1.58 </v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectiveObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.1.58 ' },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-EstimatedDateofDelivery.html </v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.15.3.1 </v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-EstimatedDateofDelivery.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.15.3.1 ' },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45778</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PregnancyStatusObservation.html </v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.15.3.8</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PregnancyStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.15.3.8' },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ResultOrganizer.html </v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.1</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ResultOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.1' },</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ResultObservation.html </v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.2</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ResultObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.2' },</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProblemConcernAct.html </v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.3</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProblemConcernAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.3' },</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProblemObservation.html </v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.4</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProblemObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.4' },</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C98" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HealthStatusObservation.html </v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.5</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HealthStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.5' },</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43636</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProblemStatus.html </v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.6</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProblemStatus.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.6' },</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AllergyIntoleranceObservation.html </v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.7</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AllergyIntoleranceObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.7' },</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C101" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2686</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SeverityObservation.html </v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.8</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SeverityObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.8' },</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C102" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ReactionObservation.html </v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.9</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ReactionObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.9' },</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureActivityProcedure.html </v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.14</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProcedureActivityProcedure.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.14' },</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C104" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationActivity.html </v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.16</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.16' },</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C105" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationSupplyOrder.html </v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.17</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationSupplyOrder.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.17' },</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationDispense.html </v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.18</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationDispense.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.18' },</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-Indication.html </v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.19</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-Indication.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.19' },</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C108" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationInformation.html </v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.23</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationInformation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.23' },</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DrugVehicle.html </v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.24 </v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DrugVehicle.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.24 ' },</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C110" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PreconditionforSubstanceAdministration.html </v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.25</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PreconditionforSubstanceAdministration.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.25' },</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C111" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-VitalSignsOrganizer.html </v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.26</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-VitalSignsOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.26' },</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C112" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-VitalSignObservation.html </v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.27</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-VitalSignObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.27' },</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C113" s="2">
+        <v>43636</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2698</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AllergyStatusObservation.html </v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.28</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AllergyStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.28' },</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C114" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AllergyConcernAct.html </v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.30</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AllergyConcernAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.30' },</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AgeObservation.html </v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.31 </v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AgeObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.31 ' },</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ServiceDeliveryLocation.html </v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.32 </v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ServiceDeliveryLocation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.32 ' },</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C117" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargeDiagnosis.html </v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.33</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HospitalDischargeDiagnosis.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.33' },</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C118" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2703</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HospitalAdmissionDiagnosis.html </v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.34</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HospitalAdmissionDiagnosis.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.34' },</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C119" s="2">
+        <v>42430</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DischargeMedication.html </v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.35</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DischargeMedication.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.35' },</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C120" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AdmissionMedication.html </v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.36</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AdmissionMedication.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.36' },</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProductInstance.html </v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.37 </v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProductInstance.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.37 ' },</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SocialHistoryObservation.html </v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.38</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SocialHistoryObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.38' },</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C123" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedEncounter.html </v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.40</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedEncounter.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.40' },</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedProcedure.html </v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.41</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedProcedure.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.41' },</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C125" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedMedicationActivity.html </v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.42</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedMedicationActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.42' },</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedSupply.html </v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.43</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedSupply.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.43' },</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C127" s="2">
+        <v>46143</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistoryOrganizer.html </v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="4"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.45</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistoryOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.45' },</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C128" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" ref="F128:F191" si="6">"https://hl7.org/cda/us/ccda/"&amp;E128</f>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistoryObservation.html </v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" ref="G128:G191" si="7">"https://hl7.org/cda/stds/ccda/draft1/StructureDefinition-"&amp;B128</f>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.46</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistoryObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.46' },</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistoryDeathObservation.html </v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.47 </v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-FamilyHistoryDeathObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.47 ' },</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45778</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectiveObservation.html </v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.48</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectiveObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.48' },</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C131" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-EncounterActivity.html </v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.49</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-EncounterActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.49' },</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C132" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NonMedicinalSupplyActivity.html </v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.50</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NonMedicinalSupplyActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.50' },</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C133" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PostprocedureDiagnosis.html </v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.51</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="5"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PostprocedureDiagnosis.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.51' },</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C134" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationActivity.html </v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.52</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" ref="H134:H197" si="8">"{new:'"&amp;F134&amp;"', old:'"&amp;G134&amp;"' },"</f>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.52' },</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationNotGivenReason.html </v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.53</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationNotGivenReason.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.53' },</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C136" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationMedicationInformation.html </v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.54</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ImmunizationMedicationInformation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.54' },</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2721</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CoverageActivity.html </v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.60</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CoverageActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.60' },</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html </v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.61</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.61' },</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CommentActivity.html </v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.64 </v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CommentActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.64 ' },</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C140" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PreoperativeDiagnosis.html </v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.65</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PreoperativeDiagnosis.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.65' },</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C141" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-FunctionalStatusOrganizer.html </v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.66</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-FunctionalStatusOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.66' },</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C142" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-FunctionalStatusObservation.html </v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.67</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-FunctionalStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.67' },</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentScaleObservation.html </v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.69</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentScaleObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.69' },</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CaregiverCharacteristics.html </v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.72 </v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CaregiverCharacteristics.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.72 ' },</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MentalStatusObservation.html </v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.74</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MentalStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.74' },</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MentalStatusOrganizer.html </v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.75</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MentalStatusOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.75' },</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NumberofPressureUlcersObservation.html </v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.76</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NumberofPressureUlcersObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.76' },</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HighestPressureUlcerStage.html </v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.77 </v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HighestPressureUlcerStage.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.77 ' },</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C149" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DeceasedObservation.html </v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.79</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DeceasedObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.79' },</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-EncounterDiagnosis.html </v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.80</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-EncounterDiagnosis.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.80' },</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentScaleSupportingObservation.html </v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.86</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AssessmentScaleSupportingObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.86' },</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html </v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.87 </v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.87 ' },</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html </v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.88 </v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.88 ' },</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html </v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.89 </v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.89 ' },</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E155" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html </v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.90 </v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PolicyActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.90 ' },</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E156" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CharacteristicsofHomeEnvironment.html </v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.109 </v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CharacteristicsofHomeEnvironment.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.109 ' },</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProgressTowardGoalObservation.html </v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.110 </v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProgressTowardGoalObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.110 ' },</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E158" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CulturalandReligiousObservation.html </v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.111 </v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CulturalandReligiousObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.111 ' },</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PrognosisObservation.html </v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.113 </v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PrognosisObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.113 ' },</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C160" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2740</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-LongitudinalCareWoundObservation.html </v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.114</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-LongitudinalCareWoundObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.114' },</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C161" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E161" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ExternalDocumentReference.html </v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.115</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ExternalDocumentReference.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.115' },</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SubstanceAdministeredAct.html </v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.118 </v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SubstanceAdministeredAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.118 ' },</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedImmunizationActivity.html </v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.120 </v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedImmunizationActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.120 ' },</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-GoalObservation.html </v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.121</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-GoalObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.121' },</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-EntryReference.html </v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.122 </v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-EntryReference.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.122 ' },</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DrugMonitoringAct.html </v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.123 </v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DrugMonitoringAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.123 ' },</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E167" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NutritionalStatusObservation.html </v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.124 </v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NutritionalStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.124 ' },</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SensoryStatus.html </v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.127 </v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SensoryStatus.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.127 ' },</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SelfCareActivitiesADLandIADL.html </v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.128 </v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SelfCareActivitiesADLandIADL.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.128 ' },</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedCoverage.html </v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.129</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedCoverage.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.129' },</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NutritionRecommendation.html </v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.130 </v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NutritionRecommendation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.130 ' },</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C172" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-InterventionAct.html </v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.131</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-InterventionAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.131' },</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C173" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HealthConcernAct.html </v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.132</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HealthConcernAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.132' },</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-WoundMeasurementObservation.html </v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.133 </v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-WoundMeasurementObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.133 ' },</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-WoundCharacteristic.html </v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.134 </v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-WoundCharacteristic.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.134 ' },</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicalEquipmentOrganizer.html </v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.135 </v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicalEquipmentOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.135 ' },</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C177" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2757</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-RiskConcernAct.html </v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.136</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-RiskConcernAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.136' },</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NutritionAssessment.html </v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.138 </v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NutritionAssessment.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.138 ' },</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ReferralAct.html </v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.140 </v>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ReferralAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.140 ' },</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-HandoffCommunicationParticipants.html </v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.141 </v>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-HandoffCommunicationParticipants.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.141 ' },</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PriorityPreference.html </v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.143 </v>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PriorityPreference.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.143 ' },</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E182" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-OutcomeObservation.html </v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.144 </v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-OutcomeObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.144 ' },</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E183" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CriticalityObservation.html </v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.145 </v>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CriticalityObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.145 ' },</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C184" s="2">
+        <v>42217</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2764</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PlannedInterventionAct.html </v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.146</v>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PlannedInterventionAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.146' },</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationFreeTextSig.html </v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.147 </v>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationFreeTextSig.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.147 ' },</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-BirthSexObservation.html </v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.200</v>
+      </c>
+      <c r="H186" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-BirthSexObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.200' },</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C187" s="2">
+        <v>42522</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SectionTimeRangeObservation.html </v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.201</v>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SectionTimeRangeObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.201' },</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C188" s="2">
+        <v>46143</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-NoteActivity.html </v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.202</v>
+      </c>
+      <c r="H188" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-NoteActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.202' },</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-PregnancyIntentionInNextYear.html </v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.281</v>
+      </c>
+      <c r="H189" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-PregnancyIntentionInNextYear.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.281' },</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C190" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-BrandNameObservation.html </v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.301</v>
+      </c>
+      <c r="H190" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-BrandNameObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.301' },</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C191" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CatalogNumberObservation.html </v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="7"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.302</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CatalogNumberObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.302' },</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C192" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E192" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" ref="F192:F249" si="9">"https://hl7.org/cda/us/ccda/"&amp;E192</f>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CompanyNameObservation.html </v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" ref="G192:G249" si="10">"https://hl7.org/cda/stds/ccda/draft1/StructureDefinition-"&amp;B192</f>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.303</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CompanyNameObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.303' },</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C193" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DeviceIdentifierObservation.html </v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.304</v>
+      </c>
+      <c r="H193" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DeviceIdentifierObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.304' },</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C194" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2774</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ImplantableDeviceStatusObservation.html </v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.305</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ImplantableDeviceStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.305' },</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C195" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DistinctIdentificationCodeObservation.html </v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.308</v>
+      </c>
+      <c r="H195" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DistinctIdentificationCodeObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.308' },</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C196" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ExpirationDateObservation.html </v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.309</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ExpirationDateObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.309' },</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C197" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-UDIOrganizer.html </v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.311</v>
+      </c>
+      <c r="H197" t="str">
+        <f t="shared" si="8"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-UDIOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.311' },</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C198" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E198" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-LatexSafetyObservation.html </v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.314</v>
+      </c>
+      <c r="H198" t="str">
+        <f t="shared" ref="H198:H249" si="11">"{new:'"&amp;F198&amp;"', old:'"&amp;G198&amp;"' },"</f>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-LatexSafetyObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.314' },</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C199" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-LotOrBatchNumberObservation.html </v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.315</v>
+      </c>
+      <c r="H199" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-LotOrBatchNumberObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.315' },</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C200" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ManufacturingDateObservation.html </v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.316</v>
+      </c>
+      <c r="H200" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ManufacturingDateObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.316' },</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C201" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E201" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ModelNumberObservation.html </v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.317</v>
+      </c>
+      <c r="H201" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ModelNumberObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.317' },</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C202" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E202" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MRISafetyObservation.html </v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.318</v>
+      </c>
+      <c r="H202" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MRISafetyObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.318' },</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C203" s="2">
+        <v>43637</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E203" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SerialNumberObservation.html </v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.319</v>
+      </c>
+      <c r="H203" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SerialNumberObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.319' },</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C204" s="2">
+        <v>43344</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E204" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SpecimenCollectionProcedure.html </v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.415</v>
+      </c>
+      <c r="H204" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SpecimenCollectionProcedure.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.415' },</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C205" s="2">
+        <v>43263</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E205" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SpecimenConditionObservation.html </v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.421</v>
+      </c>
+      <c r="H205" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SpecimenConditionObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.421' },</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C206" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E206" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamOrganizer.html </v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500</v>
+      </c>
+      <c r="H206" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500' },</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E207" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamMemberAct.html </v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500.1</v>
+      </c>
+      <c r="H207" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamMemberAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500.1' },</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C208" s="2">
+        <v>43647</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E208" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamTypeObservation.html </v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500.2</v>
+      </c>
+      <c r="H208" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamTypeObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500.2' },</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C209" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E209" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamMemberScheduleObservation.html </v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500.3</v>
+      </c>
+      <c r="H209" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CareTeamMemberScheduleObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.500.3' },</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E210" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SexualOrientationObservation.html </v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.501</v>
+      </c>
+      <c r="H210" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SexualOrientationObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.501' },</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E211" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DateOfDiagnosisAct.html </v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.502</v>
+      </c>
+      <c r="H211" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DateOfDiagnosisAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.502' },</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E212" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-BasicOccupationObservation.html </v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.503</v>
+      </c>
+      <c r="H212" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-BasicOccupationObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.503' },</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E213" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-BasicIndustryObservation.html </v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.504</v>
+      </c>
+      <c r="H213" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-BasicIndustryObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.504' },</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E214" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-DisabilityStatusObservation.html </v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.505</v>
+      </c>
+      <c r="H214" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-DisabilityStatusObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.505' },</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E215" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-TribalAffiliationObservation.html </v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.506</v>
+      </c>
+      <c r="H215" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-TribalAffiliationObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.506' },</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45105</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E216" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SexObservation.html </v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.507</v>
+      </c>
+      <c r="H216" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SexObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.507' },</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E217" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-MedicationAdherence.html </v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.508</v>
+      </c>
+      <c r="H217" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-MedicationAdherence.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.508' },</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E218" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CareExperiencePreference.html </v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.509</v>
+      </c>
+      <c r="H218" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CareExperiencePreference.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.509' },</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E219" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-TreatmentInterventionPreference.html </v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.510</v>
+      </c>
+      <c r="H219" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-TreatmentInterventionPreference.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.510' },</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E220" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SmokingStatus.html </v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.511</v>
+      </c>
+      <c r="H220" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SmokingStatus.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.511' },</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E221" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AverageBloodPressureOrganizer.html </v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.512</v>
+      </c>
+      <c r="H221" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AverageBloodPressureOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.512' },</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45778</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E222" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SexParameterForClinicalUseObservation.html </v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.513</v>
+      </c>
+      <c r="H222" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SexParameterForClinicalUseObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.513' },</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45778</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E223" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-InterpreterNeededObservation.html </v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.515</v>
+      </c>
+      <c r="H223" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-InterpreterNeededObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.515' },</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45778</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E224" t="s">
+        <v>2804</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AgeRangeObservation.html </v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.516</v>
+      </c>
+      <c r="H224" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AgeRangeObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.516' },</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C225" s="2">
+        <v>46143</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E225" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-CarePlanAct.html </v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.518</v>
+      </c>
+      <c r="H225" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-CarePlanAct.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.518' },</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E226" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-Reason.html </v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.24.3.88</v>
+      </c>
+      <c r="H226" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-Reason.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.24.3.88' },</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C227" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E227" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SubstanceOrDeviceAllergyIntoleranceObservation.html </v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.24.3.90</v>
+      </c>
+      <c r="H227" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SubstanceOrDeviceAllergyIntoleranceObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.24.3.90' },</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E228" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-GenderIdentityObservation.html </v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.34.3.45</v>
+      </c>
+      <c r="H228" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-GenderIdentityObservation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.34.3.45' },</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H229" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H230" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H231" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H232" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E233" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AuthorParticipation.html </v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.119 </v>
+      </c>
+      <c r="H233" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AuthorParticipation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.119 ' },</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E234" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-USRealmPatientNamePTNUSFIELDED.html </v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.1 </v>
+      </c>
+      <c r="H234" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-USRealmPatientNamePTNUSFIELDED.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.1 ' },</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E235" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-USRealmPersonNamePNUSFIELDED.html </v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.1.1 </v>
+      </c>
+      <c r="H235" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-USRealmPersonNamePNUSFIELDED.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.1.1 ' },</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E236" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-USRealmAddress.html </v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.2 </v>
+      </c>
+      <c r="H236" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-USRealmAddress.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.2 ' },</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E237" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-USRealmDateTimeInterval.html </v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.3 </v>
+      </c>
+      <c r="H237" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-USRealmDateTimeInterval.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.3 ' },</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E238" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-USRealmDateTime.html </v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.4 </v>
+      </c>
+      <c r="H238" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-USRealmDateTime.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.4 ' },</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C239" s="2">
+        <v>43739</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E239" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProvenanceAuthorParticipation.html </v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.6</v>
+      </c>
+      <c r="H239" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProvenanceAuthorParticipation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.6' },</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C240" s="2">
+        <v>43970</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E240" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-ProvenanceAssemblerParticipation.html </v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.7</v>
+      </c>
+      <c r="H240" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-ProvenanceAssemblerParticipation.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.7' },</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E241" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F241" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-RelatedPersonRelationshipAndNameParticipant.html </v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.8</v>
+      </c>
+      <c r="H241" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-RelatedPersonRelationshipAndNameParticipant.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.5.8' },</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H242" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H243" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H244" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H245" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'', old:'' },</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C246" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E246" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-InstructionActivity.html </v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.20</v>
+      </c>
+      <c r="H246" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-InstructionActivity.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.20' },</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E247" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F247" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-SmokingStatusMeaningfulUse.html </v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.78</v>
+      </c>
+      <c r="H247" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-SmokingStatusMeaningfulUse.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.78' },</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C248" s="2">
+        <v>41799</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E248" t="s">
+        <v>2820</v>
+      </c>
+      <c r="F248" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-TobaccoUse.html </v>
+      </c>
+      <c r="G248" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.85</v>
+      </c>
+      <c r="H248" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-TobaccoUse.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.85' },</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C249" s="2">
+        <v>44606</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E249" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F249" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectiveOrganizer.html </v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="10"/>
+        <v>https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.108</v>
+      </c>
+      <c r="H249" t="str">
+        <f t="shared" si="11"/>
+        <v>{new:'https://hl7.org/cda/us/ccda/StructureDefinition-AdvanceDirectiveOrganizer.html ', old:'https://hl7.org/cda/stds/ccda/draft1/StructureDefinition- 2.16.840.1.113883.10.20.22.4.108' },</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>